--- a/Analysis/Output/Reg2sfs_Rob.xlsx
+++ b/Analysis/Output/Reg2sfs_Rob.xlsx
@@ -665,76 +665,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>0.534476245357531</v>
+        <v>-0.882169223224227</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5496950219947</v>
+        <v>15.6296216920106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0343721368555155</v>
+        <v>-0.056442135363722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97321629246446</v>
+        <v>0.95601562168626</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.95702385926336</v>
+        <v>-9.93222656920634</v>
       </c>
       <c r="G2" t="n">
-        <v>19.2924581654477</v>
+        <v>19.2619661213218</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.516109651443803</v>
+        <v>-0.515639291786107</v>
       </c>
       <c r="I2" t="n">
-        <v>0.618936935380967</v>
+        <v>0.619260710644567</v>
       </c>
       <c r="J2" t="n">
-        <v>12.870608810346</v>
+        <v>12.8705366685935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.185819456068799</v>
+        <v>0.18633542276001</v>
       </c>
       <c r="L2" t="n">
-        <v>69.2640538436445</v>
+        <v>69.0718730660786</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000000684756388196082</v>
+        <v>0.0000000000000000709793071657048</v>
       </c>
       <c r="N2" t="n">
-        <v>13.0860329677397</v>
+        <v>13.0871423536436</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0814701801344502</v>
+        <v>0.0813921132516446</v>
       </c>
       <c r="P2" t="n">
-        <v>160.623591922147</v>
+        <v>160.791283464791</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000000000000000000000126900798188442</v>
+        <v>0.000000000000000000000126331067204525</v>
       </c>
       <c r="R2" t="n">
-        <v>13.6809263017364</v>
+        <v>13.6813054254964</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0751688398112324</v>
+        <v>0.0750589726606241</v>
       </c>
       <c r="T2" t="n">
-        <v>182.002626834371</v>
+        <v>182.27408317132</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0000000000000000000000690189393853839</v>
+        <v>0.0000000000000000000000628464750573502</v>
       </c>
       <c r="V2" t="n">
-        <v>13.8489960397792</v>
+        <v>13.849435384253</v>
       </c>
       <c r="W2" t="n">
-        <v>0.088446375743081</v>
+        <v>0.088349671514007</v>
       </c>
       <c r="X2" t="n">
-        <v>156.580706936006</v>
+        <v>156.757067082669</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00000000000000000000527675089715312</v>
+        <v>0.00000000000000000000492946090570141</v>
       </c>
     </row>
     <row r="3">
@@ -742,76 +742,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0356090642291087</v>
+        <v>0.0375525682006435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0101427039825108</v>
+        <v>0.0107820653548251</v>
       </c>
       <c r="D3" t="n">
-        <v>3.5108058255974</v>
+        <v>3.48287336097794</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00464495054703058</v>
+        <v>0.0048837184723254</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0443498629398129</v>
+        <v>0.0443407389023487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0113222538339693</v>
+        <v>0.0112628148782792</v>
       </c>
       <c r="H3" t="n">
-        <v>3.91705252241859</v>
+        <v>3.93691447311823</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00226035348923501</v>
+        <v>0.00218317393297995</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0553959319199661</v>
+        <v>0.0550257587052502</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0157275033644381</v>
+        <v>0.0155802115060323</v>
       </c>
       <c r="L3" t="n">
-        <v>3.52223303574191</v>
+        <v>3.5317722537942</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00454583191776565</v>
+        <v>0.00446907736063114</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0543724502180272</v>
+        <v>0.0539643661369079</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0146331953708517</v>
+        <v>0.0144724447097476</v>
       </c>
       <c r="P3" t="n">
-        <v>3.7156922216957</v>
+        <v>3.7287664398926</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0032254041666698</v>
+        <v>0.00315170752400775</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0899662129722847</v>
+        <v>0.0893713023172103</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0204234238325748</v>
+        <v>0.0201586827297332</v>
       </c>
       <c r="T3" t="n">
-        <v>4.40505048075196</v>
+        <v>4.43338999454521</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000975421855402497</v>
+        <v>0.000929834678332191</v>
       </c>
       <c r="V3" t="n">
-        <v>0.164624209610582</v>
+        <v>0.164073975928105</v>
       </c>
       <c r="W3" t="n">
-        <v>0.016719112385711</v>
+        <v>0.0165086416510647</v>
       </c>
       <c r="X3" t="n">
-        <v>9.84646827012644</v>
+        <v>9.93867208435788</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.000000173352152190285</v>
+        <v>0.000000154666947097352</v>
       </c>
     </row>
     <row r="4">
@@ -819,64 +819,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000109508438717619</v>
+        <v>0.000109113487157087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000046510594218297</v>
+        <v>0.0000501750775104518</v>
       </c>
       <c r="D4" t="n">
-        <v>2.35448375919778</v>
+        <v>2.1746550791946</v>
       </c>
       <c r="E4" t="n">
-        <v>0.033286470238666</v>
+        <v>0.0468195782388108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00019037465633777</v>
+        <v>0.000190781366809872</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000769440415976494</v>
+        <v>0.0000771153716852821</v>
       </c>
       <c r="H4" t="n">
-        <v>2.47419621305135</v>
+        <v>2.47397325125366</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0264649144343586</v>
+        <v>0.0264703953218967</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00028839297753187</v>
+        <v>0.000289100927971726</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000131121592380233</v>
+        <v>0.000131374347451763</v>
       </c>
       <c r="L4" t="n">
-        <v>2.19943162904531</v>
+        <v>2.20058887887436</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0447153176102443</v>
+        <v>0.0446137145668013</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000261002656786573</v>
+        <v>0.000261808325001152</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000151766473989071</v>
+        <v>0.000151885779668085</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71976491201455</v>
+        <v>1.72371847827545</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.106883986135868</v>
+        <v>0.1061476395055</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00182264010312712</v>
+        <v>0.00182301979526972</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000282373309516086</v>
+        <v>0.000282135810843314</v>
       </c>
       <c r="T4" t="n">
-        <v>6.45471806896568</v>
+        <v>6.46149735413116</v>
       </c>
       <c r="U4" t="n">
-        <v>0.000014908892536656</v>
+        <v>0.0000147412082365381</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -888,64 +888,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0244019915154255</v>
+        <v>0.0271956142707461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00542659687144461</v>
+        <v>0.00741774069659257</v>
       </c>
       <c r="D5" t="n">
-        <v>4.4967393181225</v>
+        <v>3.66629346901257</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000746548039133113</v>
+        <v>0.00326847907524689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.028492076467983</v>
+        <v>0.0284640540374175</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00625995623045626</v>
+        <v>0.00622023485220001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.55148173870001</v>
+        <v>4.57604169517011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00067812703324335</v>
+        <v>0.000647574534049286</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0234940932379918</v>
+        <v>0.0237011481354114</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0106475277219641</v>
+        <v>0.0103669585499196</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2065303656855</v>
+        <v>2.28622001537714</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0477654917318027</v>
+        <v>0.041362351636961</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0223427133479028</v>
+        <v>0.0224792703108663</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0122670337825538</v>
+        <v>0.0119348407465605</v>
       </c>
       <c r="P5" t="n">
-        <v>1.82136233941727</v>
+        <v>1.88349981270966</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.093786385615156</v>
+        <v>0.0842754782804776</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0870128594811931</v>
+        <v>0.0874575848342014</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0166843809709303</v>
+        <v>0.0162010742449411</v>
       </c>
       <c r="T5" t="n">
-        <v>5.21522852018292</v>
+        <v>5.39825838163237</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000223224476781217</v>
+        <v>0.000165049735186991</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -957,64 +957,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0309145060918479</v>
+        <v>0.031398407375033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00766384155707939</v>
+        <v>0.0113137316593185</v>
       </c>
       <c r="D6" t="n">
-        <v>4.03381331171845</v>
+        <v>2.77524766544838</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00165908580511008</v>
+        <v>0.0167302020296646</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0361620043030161</v>
+        <v>0.0361923372886675</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00816573016561949</v>
+        <v>0.00819164089191322</v>
       </c>
       <c r="H6" t="n">
-        <v>4.42850835988563</v>
+        <v>4.4182036012341</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000823381328944243</v>
+        <v>0.000835056735569991</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0307365861202282</v>
+        <v>0.03096484032993</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0122769018966394</v>
+        <v>0.0123096967716399</v>
       </c>
       <c r="L6" t="n">
-        <v>2.50361095812307</v>
+        <v>2.5154835983669</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0277435271057043</v>
+        <v>0.0271168260367846</v>
       </c>
       <c r="N6" t="n">
-        <v>0.031388548033979</v>
+        <v>0.0315851294892639</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0128236440504165</v>
+        <v>0.0128288977555899</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44770892817783</v>
+        <v>2.46202987123358</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0307430183112509</v>
+        <v>0.029917820190458</v>
       </c>
       <c r="R6" t="n">
-        <v>0.120356668487522</v>
+        <v>0.120190772249605</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0167565120643617</v>
+        <v>0.0166536525043776</v>
       </c>
       <c r="T6" t="n">
-        <v>7.18268026336461</v>
+        <v>7.2170817913975</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0000112165384603385</v>
+        <v>0.0000105955093952326</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1026,64 +1026,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0118048301621436</v>
+        <v>0.0114420117737548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00844647341519383</v>
+        <v>0.0116378392963604</v>
       </c>
       <c r="D7" t="n">
-        <v>1.39760460749318</v>
+        <v>0.983173206158049</v>
       </c>
       <c r="E7" t="n">
-        <v>0.18684892694025</v>
+        <v>0.344353162901077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0149920768472722</v>
+        <v>0.0149790158802724</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00877732233890448</v>
+        <v>0.0088042125968574</v>
       </c>
       <c r="H7" t="n">
-        <v>1.70804674460018</v>
+        <v>1.70134645381224</v>
       </c>
       <c r="I7" t="n">
-        <v>0.112640916660674</v>
+        <v>0.113886304362094</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00572371573999928</v>
+        <v>0.00585374702503389</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0097706362255915</v>
+        <v>0.00974956229996677</v>
       </c>
       <c r="L7" t="n">
-        <v>0.585807884752436</v>
+        <v>0.600411264109143</v>
       </c>
       <c r="M7" t="n">
-        <v>0.568573555626412</v>
+        <v>0.559093524746758</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00859197135062465</v>
+        <v>0.00873299150730462</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00997776736820199</v>
+        <v>0.00994650143833005</v>
       </c>
       <c r="P7" t="n">
-        <v>0.861111612804913</v>
+        <v>0.87799630467563</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.405630344130377</v>
+        <v>0.396729859191871</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0896064616907285</v>
+        <v>0.0893832218034215</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0121464209967988</v>
+        <v>0.0121012097359023</v>
       </c>
       <c r="T7" t="n">
-        <v>7.37719050857404</v>
+        <v>7.3863046549996</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00000735202817966117</v>
+        <v>0.0000072032522639882</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1095,64 +1095,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000323766610644608</v>
+        <v>-0.000887489881452303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0146692716318001</v>
+        <v>0.0168890915328976</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0220710761086969</v>
+        <v>-0.0525481124738768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98277809979878</v>
+        <v>0.959013992104586</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00111905082125142</v>
+        <v>-0.00118766544640671</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0153464420473556</v>
+        <v>0.0153564901558196</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0729192354682793</v>
+        <v>-0.0773396416990913</v>
       </c>
       <c r="I8" t="n">
-        <v>0.94315149898697</v>
+        <v>0.939712460784933</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.014300020922844</v>
+        <v>-0.0142291423579086</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0166699702169987</v>
+        <v>0.016589935891661</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.857831222053538</v>
+        <v>-0.857697247947829</v>
       </c>
       <c r="M8" t="n">
-        <v>0.408906472297688</v>
+        <v>0.408975811192384</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0106320855205381</v>
+        <v>-0.0105705837348194</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0166682484911672</v>
+        <v>0.016535408431738</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.637864591841924</v>
+        <v>-0.639269587954677</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.536363316527362</v>
+        <v>0.535480768933039</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0616726827265746</v>
+        <v>0.0612737260878065</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0243155505407204</v>
+        <v>0.0241040306693262</v>
       </c>
       <c r="T8" t="n">
-        <v>2.53634737257104</v>
+        <v>2.54205310839489</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0273286049129737</v>
+        <v>0.027048328527171</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1164,64 +1164,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.128371167493173</v>
+        <v>0.127226072700615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0162988635769253</v>
+        <v>0.019322699272385</v>
       </c>
       <c r="D9" t="n">
-        <v>7.87608086215965</v>
+        <v>6.58428053488571</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000503011434200492</v>
+        <v>0.0000287788621940159</v>
       </c>
       <c r="F9" t="n">
-        <v>0.121962119708525</v>
+        <v>0.121961278777361</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0176200630166981</v>
+        <v>0.0176782561212421</v>
       </c>
       <c r="H9" t="n">
-        <v>6.92177545522649</v>
+        <v>6.89894285617981</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0000178555423583583</v>
+        <v>0.000018428207985134</v>
       </c>
       <c r="J9" t="n">
-        <v>0.109856133877471</v>
+        <v>0.110358423813285</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0174785247756391</v>
+        <v>0.0171229686411532</v>
       </c>
       <c r="L9" t="n">
-        <v>6.28520629101286</v>
+        <v>6.44505203075889</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0000443082853007227</v>
+        <v>0.0000350746697407122</v>
       </c>
       <c r="N9" t="n">
-        <v>0.114035895550262</v>
+        <v>0.114568568133121</v>
       </c>
       <c r="O9" t="n">
-        <v>0.017260552637344</v>
+        <v>0.0168319213484248</v>
       </c>
       <c r="P9" t="n">
-        <v>6.60673490277134</v>
+        <v>6.80662449411</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0000280044342889304</v>
+        <v>0.0000211081113517019</v>
       </c>
       <c r="R9" t="n">
-        <v>0.23607860488417</v>
+        <v>0.236284321012504</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0280553901102347</v>
+        <v>0.0275524751267241</v>
       </c>
       <c r="T9" t="n">
-        <v>8.41473256855723</v>
+        <v>8.57579291608992</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00000263439297605025</v>
+        <v>0.00000217032653421672</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1233,64 +1233,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.173921421513182</v>
+        <v>0.172361028870636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0179912835484346</v>
+        <v>0.0203232181262909</v>
       </c>
       <c r="D10" t="n">
-        <v>9.66698240539455</v>
+        <v>8.48099094344034</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000000566177166832447</v>
+        <v>0.00000222840003456165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.168712852953701</v>
+        <v>0.168578769253626</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0191449268347672</v>
+        <v>0.0192655365053013</v>
       </c>
       <c r="H10" t="n">
-        <v>8.81240520842933</v>
+        <v>8.75027639158858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00000149719786754155</v>
+        <v>0.00000161125352108788</v>
       </c>
       <c r="J10" t="n">
-        <v>0.137273147976201</v>
+        <v>0.137732857465839</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0202676350462152</v>
+        <v>0.0199405169445556</v>
       </c>
       <c r="L10" t="n">
-        <v>6.77302248946085</v>
+        <v>6.90718589938282</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0000209887419309285</v>
+        <v>0.0000173724688848203</v>
       </c>
       <c r="N10" t="n">
-        <v>0.134620095855626</v>
+        <v>0.135118962320194</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0207457270753389</v>
+        <v>0.0203321217351529</v>
       </c>
       <c r="P10" t="n">
-        <v>6.48905171492653</v>
+        <v>6.64559085767136</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0000318495985646528</v>
+        <v>0.0000254120656589181</v>
       </c>
       <c r="R10" t="n">
-        <v>0.249480717920152</v>
+        <v>0.249801205600706</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0244324540247231</v>
+        <v>0.0239004824800855</v>
       </c>
       <c r="T10" t="n">
-        <v>10.2110380589565</v>
+        <v>10.4517222950979</v>
       </c>
       <c r="U10" t="n">
-        <v>0.000000326547675714998</v>
+        <v>0.000000254225751696932</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1302,64 +1302,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.144143981028334</v>
+        <v>0.142999324258757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0322482070969616</v>
+        <v>0.0356427898365415</v>
       </c>
       <c r="D11" t="n">
-        <v>4.46982930229058</v>
+        <v>4.01201266552238</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000446192636542185</v>
+        <v>0.00112572342520452</v>
       </c>
       <c r="F11" t="n">
-        <v>0.142893234826574</v>
+        <v>0.142735698536051</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0326209419364692</v>
+        <v>0.0327130771031149</v>
       </c>
       <c r="H11" t="n">
-        <v>4.38041412491599</v>
+        <v>4.36326115351772</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000533752032121788</v>
+        <v>0.000552495216856783</v>
       </c>
       <c r="J11" t="n">
-        <v>0.112538701215334</v>
+        <v>0.113017678324557</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0504806868834664</v>
+        <v>0.0500859884126638</v>
       </c>
       <c r="L11" t="n">
-        <v>2.22934171785593</v>
+        <v>2.25647295593714</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0414402367173973</v>
+        <v>0.0393359396709602</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0172119495039778</v>
+        <v>0.0178485277364327</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0422650623820006</v>
+        <v>0.0417705288696159</v>
       </c>
       <c r="P11" t="n">
-        <v>0.407238237303723</v>
+        <v>0.427299539159434</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.690137490637011</v>
+        <v>0.675814458480204</v>
       </c>
       <c r="R11" t="n">
-        <v>0.192035567451494</v>
+        <v>0.192232767953243</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0512079906219802</v>
+        <v>0.0504969522561758</v>
       </c>
       <c r="T11" t="n">
-        <v>3.75010940907855</v>
+        <v>3.80681921114818</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0022429220409305</v>
+        <v>0.00200821360625646</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1371,52 +1371,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0327494935202478</v>
+        <v>-0.033642711192235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00538943164906637</v>
+        <v>0.0052814450995951</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.07661357499935</v>
+        <v>-6.36998218438628</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0000168739742115881</v>
+        <v>0.00000970698779618962</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0466728798895728</v>
+        <v>-0.046715316789015</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00785100382318534</v>
+        <v>0.00783093623290029</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.9448295964065</v>
+        <v>-5.9654829767032</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000222544124992066</v>
+        <v>0.0000213739832893472</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0716881587141825</v>
+        <v>-0.0717046086861013</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00937488645345804</v>
+        <v>0.0093731339796887</v>
       </c>
       <c r="L12" t="n">
-        <v>-7.64682954509166</v>
+        <v>-7.65001426859822</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00000124729625912603</v>
+        <v>0.0000012373639370044</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.071393463615785</v>
+        <v>-0.0713729651939505</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0094580732367408</v>
+        <v>0.00945598955593028</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.54841518232806</v>
+        <v>-7.5479107471295</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00000142933234076463</v>
+        <v>0.00000142496163713787</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1432,52 +1432,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0681651439366767</v>
+        <v>0.0704043305997202</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00640033181664909</v>
+        <v>0.00626151543344771</v>
       </c>
       <c r="D13" t="n">
-        <v>10.6502515634205</v>
+        <v>11.2439762143897</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0000000210873103077288</v>
+        <v>0.0000000098741901782249</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0796228772421603</v>
+        <v>0.0797560413832387</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00698198977094736</v>
+        <v>0.00697382896031432</v>
       </c>
       <c r="H13" t="n">
-        <v>11.4040380828797</v>
+        <v>11.4364779860681</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00000000823036584562732</v>
+        <v>0.00000000782854678113749</v>
       </c>
       <c r="J13" t="n">
-        <v>0.107650409476338</v>
+        <v>0.107699837894737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0161411547767593</v>
+        <v>0.0161620176635567</v>
       </c>
       <c r="L13" t="n">
-        <v>6.66931275768062</v>
+        <v>6.66376192234874</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00000759016192020766</v>
+        <v>0.00000762909806707739</v>
       </c>
       <c r="N13" t="n">
-        <v>0.105331018713378</v>
+        <v>0.105385443234453</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0165434159986586</v>
+        <v>0.0165519073072638</v>
       </c>
       <c r="P13" t="n">
-        <v>6.36694493579314</v>
+        <v>6.3669667355015</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0000129589474149679</v>
+        <v>0.0000129096075959563</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1493,52 +1493,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0401277472073999</v>
+        <v>0.0424694240627261</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00667973308235342</v>
+        <v>0.00668922511612159</v>
       </c>
       <c r="D14" t="n">
-        <v>6.00738782712886</v>
+        <v>6.34893030589914</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000242226538062115</v>
+        <v>0.0000130909917722926</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0473672043323074</v>
+        <v>0.0473727106591426</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00830808990738304</v>
+        <v>0.00825207250650499</v>
       </c>
       <c r="H14" t="n">
-        <v>5.70133506742799</v>
+        <v>5.74070460745459</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0000420207140272204</v>
+        <v>0.000038932083567137</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0347429486657421</v>
+        <v>0.0345669116293955</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00867327450933463</v>
+        <v>0.00856591409849697</v>
       </c>
       <c r="L14" t="n">
-        <v>4.00574761335524</v>
+        <v>4.03540255388048</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00114633750863712</v>
+        <v>0.0010772757736941</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0325958257957038</v>
+        <v>0.0324530147721452</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0105982863009759</v>
+        <v>0.0104112739267454</v>
       </c>
       <c r="P14" t="n">
-        <v>3.0755751326233</v>
+        <v>3.1171031518801</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00782504976783856</v>
+        <v>0.00718608973477489</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1554,52 +1554,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0450464982265947</v>
+        <v>-0.0453669326672284</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00869199033571563</v>
+        <v>0.00913646500953248</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.18252971836582</v>
+        <v>-4.96547982396858</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0000993048141742786</v>
+        <v>0.000151270900299621</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0524124958100093</v>
+        <v>-0.0526121122988189</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0100228463722322</v>
+        <v>0.00999431738530752</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.2293025218081</v>
+        <v>-5.26420267342751</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0000914346405863413</v>
+        <v>0.0000852019651213884</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0425600585549987</v>
+        <v>-0.0426948470990391</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0218300554103455</v>
+        <v>0.0217957247921696</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.94960836127008</v>
+        <v>-1.958863378307</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0696110460780544</v>
+        <v>0.0684172414272174</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0462011594761188</v>
+        <v>-0.0464461971961823</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0255170313766399</v>
+        <v>0.0254536468653911</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.8106008804149</v>
+        <v>-1.82473644903648</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0898072415529056</v>
+        <v>0.0875379309977184</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1615,52 +1615,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.075299876696666</v>
+        <v>-0.0792977557809392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0169350457017792</v>
+        <v>0.0183617936154787</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.44639347437693</v>
+        <v>-4.31862798599873</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000619613427163944</v>
+        <v>0.000787145318540092</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0965302864833044</v>
+        <v>-0.0961438386928665</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0205595958136154</v>
+        <v>0.0205637605211998</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.69514514577072</v>
+        <v>-4.67540159270718</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000391119349374924</v>
+        <v>0.000405596250357088</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0465402186408249</v>
+        <v>-0.0459927177299191</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0410058143783137</v>
+        <v>0.0409409951382218</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.13496632968807</v>
+        <v>-1.12339032245411</v>
       </c>
       <c r="M16" t="n">
-        <v>0.276566475372416</v>
+        <v>0.28127873796442</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0347358650972049</v>
+        <v>-0.0340270549789662</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0453921249830506</v>
+        <v>0.0453843700736792</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.765239898113941</v>
+        <v>-0.749752721558656</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.457547849808804</v>
+        <v>0.466510144715644</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1676,52 +1676,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000178393086740879</v>
+        <v>0.000179229034575362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000088974306607496</v>
+        <v>0.00000960286687012124</v>
       </c>
       <c r="D17" t="n">
-        <v>20.0499552671815</v>
+        <v>18.6641173932155</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000000000191810683725087</v>
+        <v>0.0000000000522005268642877</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000196593689906201</v>
+        <v>0.000196484673064276</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000115797241274402</v>
+        <v>0.000011574649965823</v>
       </c>
       <c r="H17" t="n">
-        <v>16.9774070385958</v>
+        <v>16.9754311054283</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00000000021710479135024</v>
+        <v>0.000000000210311078885969</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000247867569703165</v>
+        <v>0.000247718024595725</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000168334386634488</v>
+        <v>0.0000168430278467566</v>
       </c>
       <c r="L17" t="n">
-        <v>14.7247139849906</v>
+        <v>14.707452059662</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000000125701395162887</v>
+        <v>0.00000000123192458563609</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00025523303743071</v>
+        <v>0.000255044191973796</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0000160960309875377</v>
+        <v>0.0000160931108884362</v>
       </c>
       <c r="P17" t="n">
-        <v>15.8568927724061</v>
+        <v>15.8480354570265</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000000000409639736264572</v>
+        <v>0.00000000039581969845293</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1737,52 +1737,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00092433850216066</v>
+        <v>-0.00110461700915952</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00100847618470449</v>
+        <v>0.000908015711605781</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.916569489870023</v>
+        <v>-1.21651750629519</v>
       </c>
       <c r="E18" t="n">
-        <v>0.374823178456729</v>
+        <v>0.243888458293699</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00183182973349193</v>
+        <v>-0.00186355581988971</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000988959483494809</v>
+        <v>0.000992189577962377</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.85227985985692</v>
+        <v>-1.87822555414946</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0851019805643421</v>
+        <v>0.0812481499752893</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0046813616700027</v>
+        <v>0.0046509454004017</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00197682392352965</v>
+        <v>0.0019740785257487</v>
       </c>
       <c r="L18" t="n">
-        <v>2.3681227317626</v>
+        <v>2.35600830450135</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0334388849940763</v>
+        <v>0.0342072929505613</v>
       </c>
       <c r="N18" t="n">
-        <v>0.00443706093647312</v>
+        <v>0.0043961888687648</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00186240652044076</v>
+        <v>0.00186201072151308</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38243417201044</v>
+        <v>2.3609900941883</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0335449421844917</v>
+        <v>0.0349176196175657</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1798,52 +1798,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0200777360313704</v>
+        <v>0.0224404938010025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0105242981508432</v>
+        <v>0.0096622840196624</v>
       </c>
       <c r="D19" t="n">
-        <v>1.90775059235297</v>
+        <v>2.32248335438463</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0778637870552065</v>
+        <v>0.0363789458980484</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0314973389632004</v>
+        <v>0.0317693301207166</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0112054191664342</v>
+        <v>0.0112146592311308</v>
       </c>
       <c r="H19" t="n">
-        <v>2.81090234067733</v>
+        <v>2.83283954206366</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0139955253465442</v>
+        <v>0.0134046205477546</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00378156121624024</v>
+        <v>0.00405873092049012</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0214527766331131</v>
+        <v>0.0214507685317013</v>
       </c>
       <c r="L19" t="n">
-        <v>0.176273742131975</v>
+        <v>0.18921144547767</v>
       </c>
       <c r="M19" t="n">
-        <v>0.862667335617453</v>
+        <v>0.852711597567983</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00351831027856082</v>
+        <v>0.00390661125980154</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0215401879693324</v>
+        <v>0.0215506875368721</v>
       </c>
       <c r="P19" t="n">
-        <v>0.163337027679144</v>
+        <v>0.181275481495314</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.872689591578146</v>
+        <v>0.858864156659559</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1859,52 +1859,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0400675937885763</v>
+        <v>-0.0438077736484055</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0125995010825829</v>
+        <v>0.0129800222850754</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.18009368196049</v>
+        <v>-3.37501528782245</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0106740389513133</v>
+        <v>0.0077490776232405</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0571676070211129</v>
+        <v>-0.0572838132550262</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0143518034060083</v>
+        <v>0.0144158156674186</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.98330477389203</v>
+        <v>-3.97367825564628</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00294806481854221</v>
+        <v>0.00297377330663679</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0265828559398808</v>
+        <v>-0.0271397176610855</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0315910863159993</v>
+        <v>0.0316334964505891</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.84146697818422</v>
+        <v>-0.857942393547207</v>
       </c>
       <c r="M20" t="n">
-        <v>0.421166219074257</v>
+        <v>0.412388107542016</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0279420662618858</v>
+        <v>-0.028715512969616</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0322110460433001</v>
+        <v>0.0322833287320794</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.867468452416116</v>
+        <v>-0.889484266257893</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.407513321345376</v>
+        <v>0.396095778412858</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1920,52 +1920,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.113350497642435</v>
+        <v>0.113855831459904</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00981818601584633</v>
+        <v>0.0103464776840517</v>
       </c>
       <c r="D21" t="n">
-        <v>11.5449531572828</v>
+        <v>11.0043084165159</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000000312113494470093</v>
+        <v>0.0000000548005316251264</v>
       </c>
       <c r="F21" t="n">
-        <v>0.118177031797814</v>
+        <v>0.117977415061208</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0115145127118257</v>
+        <v>0.0115352942101529</v>
       </c>
       <c r="H21" t="n">
-        <v>10.2633115925473</v>
+        <v>10.2275167769339</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000000126052925045122</v>
+        <v>0.000000130945377500288</v>
       </c>
       <c r="J21" t="n">
-        <v>0.156042496697703</v>
+        <v>0.1559348096497</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0209098145185002</v>
+        <v>0.020930834979459</v>
       </c>
       <c r="L21" t="n">
-        <v>7.46264375323095</v>
+        <v>7.45000425461914</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00000457673948292005</v>
+        <v>0.00000465046881118224</v>
       </c>
       <c r="N21" t="n">
-        <v>0.152415204340609</v>
+        <v>0.152314579798843</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0218187016987176</v>
+        <v>0.0218458747759069</v>
       </c>
       <c r="P21" t="n">
-        <v>6.98553041538522</v>
+        <v>6.97223532411831</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.00000886637136731979</v>
+        <v>0.0000090259860472463</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1981,52 +1981,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0605440221656278</v>
+        <v>0.0596426892711796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00430844800678434</v>
+        <v>0.00443630047739009</v>
       </c>
       <c r="D22" t="n">
-        <v>14.0523970743738</v>
+        <v>13.444240212121</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000000000732216535890044</v>
+        <v>0.00000000132774726280588</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0627295561340677</v>
+        <v>0.0626879628670481</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00428912629709266</v>
+        <v>0.00435744186370536</v>
       </c>
       <c r="H22" t="n">
-        <v>14.6252527412374</v>
+        <v>14.3864140538966</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000000000427616003891371</v>
+        <v>0.000000000529463558809988</v>
       </c>
       <c r="J22" t="n">
-        <v>0.080402092249944</v>
+        <v>0.0803937088608223</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0117314490937789</v>
+        <v>0.0118500066642493</v>
       </c>
       <c r="L22" t="n">
-        <v>6.85355164628216</v>
+        <v>6.78427541339406</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00000650413442616322</v>
+        <v>0.00000726084679792372</v>
       </c>
       <c r="N22" t="n">
-        <v>0.077363936506678</v>
+        <v>0.0772868455926749</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0135227425342369</v>
+        <v>0.0136068526258092</v>
       </c>
       <c r="P22" t="n">
-        <v>5.72102414216699</v>
+        <v>5.67999431742786</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00004495775116353</v>
+        <v>0.0000483157445229885</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2042,52 +2042,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0686781781563733</v>
+        <v>-0.0678609538383971</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00914500138794952</v>
+        <v>0.00928516119561703</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.50991445959444</v>
+        <v>-7.30853804352155</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000116528471270366</v>
+        <v>0.0000016435553400577</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0647134478173182</v>
+        <v>-0.0644849103258854</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0108349593311839</v>
+        <v>0.0107734906907368</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.97265258126696</v>
+        <v>-5.98551687442683</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000186190275115272</v>
+        <v>0.0000181572445999023</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0631823512309884</v>
+        <v>-0.0631432027826666</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0175687851344627</v>
+        <v>0.0174999718833221</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.59628458925431</v>
+        <v>-3.60818881331139</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0023814162371675</v>
+        <v>0.00232157984345124</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0641770145822295</v>
+        <v>-0.0642039073849254</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0186269760224962</v>
+        <v>0.0185684220477267</v>
       </c>
       <c r="P23" t="n">
-        <v>-3.44538021119056</v>
+        <v>-3.45769323962485</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.00326671655277904</v>
+        <v>0.00318180858472612</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2103,40 +2103,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202651697132881</v>
+        <v>0.0199527174545016</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0137156802330881</v>
+        <v>0.0133255074585968</v>
       </c>
       <c r="D24" t="n">
-        <v>1.47751838544616</v>
+        <v>1.49733265442206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.163485402605974</v>
+        <v>0.158339572179952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0256719419144315</v>
+        <v>0.0258398515973159</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0138045217878221</v>
+        <v>0.0138576690261265</v>
       </c>
       <c r="H24" t="n">
-        <v>1.85967629368215</v>
+        <v>1.86466075561473</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0858601105485053</v>
+        <v>0.0851147396759308</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0383743381130551</v>
+        <v>0.0382840724311756</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0182418735011619</v>
+        <v>0.0183006937968934</v>
       </c>
       <c r="L24" t="n">
-        <v>2.10364018315394</v>
+        <v>2.09194650520159</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0556539762258122</v>
+        <v>0.0568443082094396</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2156,40 +2156,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0503984688222645</v>
+        <v>-0.0532901260434927</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0209078479632033</v>
+        <v>0.0238167100490314</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.41050484540365</v>
+        <v>-2.23750996396162</v>
       </c>
       <c r="E25" t="n">
-        <v>0.069196217820055</v>
+        <v>0.083862168613506</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0486752335080781</v>
+        <v>-0.0520193028705676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0239554593351746</v>
+        <v>0.0262173450922666</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.03190566405072</v>
+        <v>-1.98415601150674</v>
       </c>
       <c r="I25" t="n">
-        <v>0.107202521382508</v>
+        <v>0.112960297627794</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.076545097431957</v>
+        <v>-0.0772607833179973</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0318276390068061</v>
+        <v>0.0326328193217447</v>
       </c>
       <c r="L25" t="n">
-        <v>-2.40498823728611</v>
+        <v>-2.36757917102538</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0696072384214045</v>
+        <v>0.0721865854235432</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2209,40 +2209,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.018041270753224</v>
+        <v>-0.0282054929810016</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0193967140748543</v>
+        <v>0.0206868150083083</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.930119951430979</v>
+        <v>-1.36345266149833</v>
       </c>
       <c r="E26" t="n">
-        <v>0.366825291383866</v>
+        <v>0.192502490728956</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0324898074081923</v>
+        <v>-0.0311035999412366</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0249540015788321</v>
+        <v>0.0250523828795094</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.30198787178697</v>
+        <v>-1.24154257464573</v>
       </c>
       <c r="I26" t="n">
-        <v>0.212277404045957</v>
+        <v>0.233101731378079</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0351483164982677</v>
+        <v>-0.0329836535428115</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0259941230741525</v>
+        <v>0.0263150784284633</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.35216396406224</v>
+        <v>-1.25341270148506</v>
       </c>
       <c r="M26" t="n">
-        <v>0.196050551841252</v>
+        <v>0.228854196986127</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2262,40 +2262,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0797184453444214</v>
+        <v>0.0761181405501486</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0185751267142019</v>
+        <v>0.0192139292629541</v>
       </c>
       <c r="D27" t="n">
-        <v>4.29167706745556</v>
+        <v>3.96161240672984</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00115445089911153</v>
+        <v>0.00205678113713458</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0924741520155517</v>
+        <v>0.0932677334016508</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0224497529761029</v>
+        <v>0.0227893369395902</v>
       </c>
       <c r="H27" t="n">
-        <v>4.11916122702943</v>
+        <v>4.09260408272887</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00155977178763422</v>
+        <v>0.00163086742016552</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0801387279335513</v>
+        <v>0.0811112203893735</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0428112520661446</v>
+        <v>0.0435172875676121</v>
       </c>
       <c r="L27" t="n">
-        <v>1.87190806308899</v>
+        <v>1.86388501956498</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0875185957885717</v>
+        <v>0.0886896835943359</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2315,40 +2315,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0252206973240729</v>
+        <v>0.010780179971984</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0900136610651644</v>
+        <v>0.0968389709875416</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2801874407243</v>
+        <v>0.111320678669447</v>
       </c>
       <c r="E28" t="n">
-        <v>0.800521141935548</v>
+        <v>0.919525103527737</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0164273770194625</v>
+        <v>-0.0166231058412418</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0984339813301466</v>
+        <v>0.0985380858648322</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.16688725577771</v>
+        <v>-0.168697267613299</v>
       </c>
       <c r="I28" t="n">
-        <v>0.880035418497691</v>
+        <v>0.878746013985418</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0476808582847099</v>
+        <v>-0.0477423877057427</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0621762884435803</v>
+        <v>0.0621471494452373</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.766865624794833</v>
+        <v>-0.768215246104124</v>
       </c>
       <c r="M28" t="n">
-        <v>0.526805189167268</v>
+        <v>0.526162403436557</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2368,40 +2368,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.161116071734852</v>
+        <v>0.191965454629453</v>
       </c>
       <c r="C29" t="n">
-        <v>0.106142222762274</v>
+        <v>0.0769691632136643</v>
       </c>
       <c r="D29" t="n">
-        <v>1.51792630248288</v>
+        <v>2.49405666651933</v>
       </c>
       <c r="E29" t="n">
-        <v>0.369618304046174</v>
+        <v>0.241507733398657</v>
       </c>
       <c r="F29" t="n">
-        <v>0.243142634873132</v>
+        <v>0.243040312052888</v>
       </c>
       <c r="G29" t="n">
-        <v>0.107306507268454</v>
+        <v>0.107375867523591</v>
       </c>
       <c r="H29" t="n">
-        <v>2.26587036576309</v>
+        <v>2.26345376906492</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2634556339472</v>
+        <v>0.263706861107728</v>
       </c>
       <c r="J29" t="n">
-        <v>0.330097303596769</v>
+        <v>0.329993107665029</v>
       </c>
       <c r="K29" t="n">
-        <v>0.109618136727654</v>
+        <v>0.109639765754582</v>
       </c>
       <c r="L29" t="n">
-        <v>3.01133839208465</v>
+        <v>3.00979398664247</v>
       </c>
       <c r="M29" t="n">
-        <v>0.203077013577058</v>
+        <v>0.203174781988527</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2421,40 +2421,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0806055607484778</v>
+        <v>-0.0765000569816201</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0407057476788245</v>
+        <v>0.0357166986681762</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.98020096288293</v>
+        <v>-2.14185688583201</v>
       </c>
       <c r="E30" t="n">
-        <v>0.143206352627371</v>
+        <v>0.123123534632621</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0419415793616204</v>
+        <v>-0.0418749904455366</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0426288231429739</v>
+        <v>0.0428198476287459</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.983878424721027</v>
+        <v>-0.977934130186511</v>
       </c>
       <c r="I30" t="n">
-        <v>0.399212220994952</v>
+        <v>0.401893525078747</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0485898179521987</v>
+        <v>-0.0486603365772626</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0599470038857585</v>
+        <v>0.0599990065242952</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.810546229212668</v>
+        <v>-0.811019038416222</v>
       </c>
       <c r="M30" t="n">
-        <v>0.48007895326736</v>
+        <v>0.479994034227463</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2474,40 +2474,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0103142398845473</v>
+        <v>-0.00284334850198601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0290312647131403</v>
+        <v>0.0318405919271025</v>
       </c>
       <c r="D31" t="n">
-        <v>0.355280418764493</v>
+        <v>-0.089299486281402</v>
       </c>
       <c r="E31" t="n">
-        <v>0.731041580863971</v>
+        <v>0.930899132956507</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0180066009654395</v>
+        <v>0.0178569924048048</v>
       </c>
       <c r="G31" t="n">
-        <v>0.029197055685706</v>
+        <v>0.0292478324624947</v>
       </c>
       <c r="H31" t="n">
-        <v>0.616726602821632</v>
+        <v>0.610540710245907</v>
       </c>
       <c r="I31" t="n">
-        <v>0.553879482992901</v>
+        <v>0.557776878255344</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00944877914824336</v>
+        <v>0.00922696950849271</v>
       </c>
       <c r="K31" t="n">
-        <v>0.049048682756397</v>
+        <v>0.0490443636068041</v>
       </c>
       <c r="L31" t="n">
-        <v>0.192640833907227</v>
+        <v>0.188135166407025</v>
       </c>
       <c r="M31" t="n">
-        <v>0.851948592829132</v>
+        <v>0.855365059033734</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2527,40 +2527,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0427016662291832</v>
+        <v>-0.00367529879498761</v>
       </c>
       <c r="C32" t="n">
-        <v>0.145684561300902</v>
+        <v>0.145609432489968</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293110442505886</v>
+        <v>-0.0252408015891471</v>
       </c>
       <c r="E32" t="n">
-        <v>0.778946210016822</v>
+        <v>0.980651636823341</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.024803952971719</v>
+        <v>-0.0246732174686789</v>
       </c>
       <c r="G32" t="n">
-        <v>0.146434588953149</v>
+        <v>0.146372448201453</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.169385888600779</v>
+        <v>-0.168564629285431</v>
       </c>
       <c r="I32" t="n">
-        <v>0.870876005978191</v>
+        <v>0.871495148833414</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0282962180886349</v>
+        <v>-0.028050974684037</v>
       </c>
       <c r="K32" t="n">
-        <v>0.146185079460665</v>
+        <v>0.146136853953895</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.193564337708273</v>
+        <v>-0.191950038098445</v>
       </c>
       <c r="M32" t="n">
-        <v>0.85269787449195</v>
+        <v>0.853908860992069</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2580,40 +2580,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0346817048952131</v>
+        <v>0.024890960314246</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0459372996694988</v>
+        <v>0.0437638029867512</v>
       </c>
       <c r="D33" t="n">
-        <v>0.754979181291339</v>
+        <v>0.568756794782696</v>
       </c>
       <c r="E33" t="n">
-        <v>0.489811601506744</v>
+        <v>0.598007418799327</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0309798025208763</v>
+        <v>0.030902761920816</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0523409243007045</v>
+        <v>0.0525138753981632</v>
       </c>
       <c r="H33" t="n">
-        <v>0.591884895705966</v>
+        <v>0.588468508303939</v>
       </c>
       <c r="I33" t="n">
-        <v>0.583963569496718</v>
+        <v>0.585826911316581</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0995281268493486</v>
+        <v>-0.100596263702816</v>
       </c>
       <c r="K33" t="n">
-        <v>0.104271488430952</v>
+        <v>0.104281647282635</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.954509505398068</v>
+        <v>-0.964659327160123</v>
       </c>
       <c r="M33" t="n">
-        <v>0.400934460870996</v>
+        <v>0.395934479282504</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2633,40 +2633,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.375252330721106</v>
+        <v>0.37257352161895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272247101550123</v>
+        <v>0.274458341283442</v>
       </c>
       <c r="D34" t="n">
-        <v>1.37835197724601</v>
+        <v>1.35748660389294</v>
       </c>
       <c r="E34" t="n">
-        <v>0.398141145475679</v>
+        <v>0.402741787524944</v>
       </c>
       <c r="F34" t="n">
-        <v>0.521189967675255</v>
+        <v>0.521615600511229</v>
       </c>
       <c r="G34" t="n">
-        <v>0.19479878929552</v>
+        <v>0.194888725203689</v>
       </c>
       <c r="H34" t="n">
-        <v>2.675529809811</v>
+        <v>2.67647910347845</v>
       </c>
       <c r="I34" t="n">
-        <v>0.226216471826835</v>
+        <v>0.22614215963431</v>
       </c>
       <c r="J34" t="n">
-        <v>0.364338011843977</v>
+        <v>0.364623230315492</v>
       </c>
       <c r="K34" t="n">
-        <v>0.236742370773245</v>
+        <v>0.23717813532848</v>
       </c>
       <c r="L34" t="n">
-        <v>1.53896410960987</v>
+        <v>1.53733913883127</v>
       </c>
       <c r="M34" t="n">
-        <v>0.365701492341311</v>
+        <v>0.366009883944078</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2686,40 +2686,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0415961983224648</v>
+        <v>0.0388330972828465</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0501865828423463</v>
+        <v>0.05096951355656</v>
       </c>
       <c r="D35" t="n">
-        <v>0.828831053374029</v>
+        <v>0.761888716865114</v>
       </c>
       <c r="E35" t="n">
-        <v>0.423648702611299</v>
+        <v>0.461087177074142</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0516816440079049</v>
+        <v>0.0517751302330215</v>
       </c>
       <c r="G35" t="n">
-        <v>0.054162511443774</v>
+        <v>0.0541690035663975</v>
       </c>
       <c r="H35" t="n">
-        <v>0.954195856696111</v>
+        <v>0.955807321978117</v>
       </c>
       <c r="I35" t="n">
-        <v>0.359124749702376</v>
+        <v>0.35834300250416</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0894764117328635</v>
+        <v>0.0895510578164336</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0751791008458926</v>
+        <v>0.0752109901650269</v>
       </c>
       <c r="L35" t="n">
-        <v>1.19017666779865</v>
+        <v>1.19066452415986</v>
       </c>
       <c r="M35" t="n">
-        <v>0.257405983568203</v>
+        <v>0.257221545836646</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2739,40 +2739,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.105683035383101</v>
+        <v>0.106690190109419</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0505867649225457</v>
+        <v>0.0521666546160718</v>
       </c>
       <c r="D36" t="n">
-        <v>2.089143979555</v>
+        <v>2.04517983556011</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0602043652642602</v>
+        <v>0.0649973025992531</v>
       </c>
       <c r="F36" t="n">
-        <v>0.120247607784454</v>
+        <v>0.120280806216827</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0553851054165178</v>
+        <v>0.055376193845294</v>
       </c>
       <c r="H36" t="n">
-        <v>2.1711181531595</v>
+        <v>2.17206705381122</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0521810351035493</v>
+        <v>0.0520942418622979</v>
       </c>
       <c r="J36" t="n">
-        <v>0.138528007116203</v>
+        <v>0.138578475908983</v>
       </c>
       <c r="K36" t="n">
-        <v>0.075222400819632</v>
+        <v>0.0752104424240449</v>
       </c>
       <c r="L36" t="n">
-        <v>1.84157917863277</v>
+        <v>1.84254302251889</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0921084405179661</v>
+        <v>0.0919587529474925</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2792,40 +2792,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.104519599238665</v>
+        <v>0.107889338689398</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0538314485867945</v>
+        <v>0.0548872195059795</v>
       </c>
       <c r="D37" t="n">
-        <v>1.94160852034558</v>
+        <v>1.96565502243458</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0772956096826701</v>
+        <v>0.0741749024533477</v>
       </c>
       <c r="F37" t="n">
-        <v>0.120913967041494</v>
+        <v>0.120940404944919</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0582395478286498</v>
+        <v>0.0582350150379827</v>
       </c>
       <c r="H37" t="n">
-        <v>2.07614879492613</v>
+        <v>2.0767643807774</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0612333467428259</v>
+        <v>0.06116730771836</v>
       </c>
       <c r="J37" t="n">
-        <v>0.145929728973905</v>
+        <v>0.146000222923851</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0815546428422457</v>
+        <v>0.0815675600324415</v>
       </c>
       <c r="L37" t="n">
-        <v>1.78934912701638</v>
+        <v>1.78993000239045</v>
       </c>
       <c r="M37" t="n">
-        <v>0.100160914805791</v>
+        <v>0.10006301202432</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2845,40 +2845,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.133742893654985</v>
+        <v>0.137177876122855</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0533917051424816</v>
+        <v>0.0555317391841678</v>
       </c>
       <c r="D38" t="n">
-        <v>2.50493767333478</v>
+        <v>2.4702607578688</v>
       </c>
       <c r="E38" t="n">
-        <v>0.028656038731084</v>
+        <v>0.0305136759543443</v>
       </c>
       <c r="F38" t="n">
-        <v>0.152782014526673</v>
+        <v>0.152831299777654</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0610823125331716</v>
+        <v>0.0610733548192328</v>
       </c>
       <c r="H38" t="n">
-        <v>2.50124804039963</v>
+        <v>2.50242188643493</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0288610150720749</v>
+        <v>0.0288002389866942</v>
       </c>
       <c r="J38" t="n">
-        <v>0.166820011219081</v>
+        <v>0.166842445503481</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0792321799049253</v>
+        <v>0.0792353317001298</v>
       </c>
       <c r="L38" t="n">
-        <v>2.10545780034396</v>
+        <v>2.10565718504095</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0583300643310893</v>
+        <v>0.0583097933333829</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2898,40 +2898,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.143676200085097</v>
+        <v>0.147194069534556</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0511828713425197</v>
+        <v>0.0528502760819744</v>
       </c>
       <c r="D39" t="n">
-        <v>2.80711488661129</v>
+        <v>2.78511448655912</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0162231744319357</v>
+        <v>0.0168969991048414</v>
       </c>
       <c r="F39" t="n">
-        <v>0.162406611919228</v>
+        <v>0.16254659086843</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0576520354538643</v>
+        <v>0.0575866506493175</v>
       </c>
       <c r="H39" t="n">
-        <v>2.81701436281799</v>
+        <v>2.82264359943908</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0159382554841037</v>
+        <v>0.0157732493529746</v>
       </c>
       <c r="J39" t="n">
-        <v>0.175001317335586</v>
+        <v>0.175356841541833</v>
       </c>
       <c r="K39" t="n">
-        <v>0.076008286167084</v>
+        <v>0.0759516004473367</v>
       </c>
       <c r="L39" t="n">
-        <v>2.30239788528967</v>
+        <v>2.30879718806481</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0406333912263396</v>
+        <v>0.0401678059160433</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2951,40 +2951,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000212086340325741</v>
+        <v>0.000158157740650138</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000133665978221332</v>
+        <v>0.000136872035095578</v>
       </c>
       <c r="D40" t="n">
-        <v>1.58668902250172</v>
+        <v>1.15551537273261</v>
       </c>
       <c r="E40" t="n">
-        <v>0.166794396966711</v>
+        <v>0.294631113254126</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000293382718886725</v>
+        <v>0.00029320861813115</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000115024365189991</v>
+        <v>0.000115288744467939</v>
       </c>
       <c r="H40" t="n">
-        <v>2.55061367565151</v>
+        <v>2.54325449968527</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0475372259580742</v>
+        <v>0.0479795262726213</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000225780877028606</v>
+        <v>0.000225750993405799</v>
       </c>
       <c r="K40" t="n">
-        <v>0.000252876504737675</v>
+        <v>0.000253249535664169</v>
       </c>
       <c r="L40" t="n">
-        <v>0.892850355009546</v>
+        <v>0.891417205617957</v>
       </c>
       <c r="M40" t="n">
-        <v>0.411216824200905</v>
+        <v>0.411907060263741</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3004,40 +3004,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00584419635677116</v>
+        <v>-0.00682247358784577</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00594960193637116</v>
+        <v>0.0056729981599001</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.98228359128438</v>
+        <v>-1.20262221061004</v>
       </c>
       <c r="E41" t="n">
-        <v>0.342485190934795</v>
+        <v>0.248879226438427</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.00696610400709832</v>
+        <v>-0.00680424828477948</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00653970965250499</v>
+        <v>0.00652460044540011</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.06520080817808</v>
+        <v>-1.04286053095811</v>
       </c>
       <c r="I41" t="n">
-        <v>0.304642041301007</v>
+        <v>0.314510620883782</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.021098543952128</v>
+        <v>-0.0210887306737894</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0115089260698342</v>
+        <v>0.0115525626816338</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.83323307701393</v>
+        <v>-1.82545909985116</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0878148907739286</v>
+        <v>0.0890217364485795</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3057,40 +3057,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0712841689837272</v>
+        <v>-0.0709873736201632</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0171054830577397</v>
+        <v>0.0173767138896578</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.16732861288435</v>
+        <v>-4.08520126825667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000747212249773407</v>
+        <v>0.000886632669542393</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0785690827195003</v>
+        <v>-0.0783992823357023</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0171489658579992</v>
+        <v>0.017164077433033</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.58156388962961</v>
+        <v>-4.56763741841547</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000318122040524886</v>
+        <v>0.000327331776598464</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0931730213970136</v>
+        <v>-0.0930381461362761</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0232890553052282</v>
+        <v>0.0233008095355449</v>
       </c>
       <c r="L42" t="n">
-        <v>-4.00072137645261</v>
+        <v>-3.99291475235434</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00105714453759442</v>
+        <v>0.00107456659476831</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3110,28 +3110,28 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0016404802077551</v>
+        <v>0.00207988254258819</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00961375448218381</v>
+        <v>0.00945303645283961</v>
       </c>
       <c r="D43" t="n">
-        <v>0.170638870671727</v>
+        <v>0.220022693550855</v>
       </c>
       <c r="E43" t="n">
-        <v>0.868335540703729</v>
+        <v>0.830821671788699</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000448036937644729</v>
+        <v>0.000446112881874842</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0108305259908663</v>
+        <v>0.0108359969307101</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0413679758510873</v>
+        <v>0.0411695282609872</v>
       </c>
       <c r="I43" t="n">
-        <v>0.967924855206152</v>
+        <v>0.968078524501812</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -3155,28 +3155,28 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0622017821841851</v>
+        <v>-0.0652005639416118</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0313505043101812</v>
+        <v>0.0318579566521597</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.98407596792581</v>
+        <v>-2.04660219277408</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0693130438528574</v>
+        <v>0.0620338141611816</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0859688019705399</v>
+        <v>-0.0862691599894327</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0409551781387139</v>
+        <v>0.0408405521023846</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.09909481236698</v>
+        <v>-2.11234068954704</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0562453701896051</v>
+        <v>0.0549173600493543</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3200,28 +3200,28 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.00140096527106787</v>
+        <v>0.0000171961223339213</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00820518493242752</v>
+        <v>0.00872856044810901</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.170741461966463</v>
+        <v>0.00197009832676896</v>
       </c>
       <c r="E45" t="n">
-        <v>0.867801267560724</v>
+        <v>0.998466825096016</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00135223024162252</v>
+        <v>0.00132531227698466</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00991954089760349</v>
+        <v>0.00990397656523719</v>
       </c>
       <c r="H45" t="n">
-        <v>0.136319841369797</v>
+        <v>0.133816176588754</v>
       </c>
       <c r="I45" t="n">
-        <v>0.894659293595992</v>
+        <v>0.896580227729191</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -3245,28 +3245,28 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0047923545323337</v>
+        <v>-0.00556052119381948</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00708120324634853</v>
+        <v>0.00729633879037833</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.676771216078978</v>
+        <v>-0.762097451005445</v>
       </c>
       <c r="E46" t="n">
-        <v>0.510838144360363</v>
+        <v>0.45984979282151</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.00764318685842521</v>
+        <v>-0.00763302172730037</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0095562973547326</v>
+        <v>0.00953794577732791</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.799806303080351</v>
+        <v>-0.800279421324073</v>
       </c>
       <c r="I46" t="n">
-        <v>0.439799885771666</v>
+        <v>0.439562770134739</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3290,28 +3290,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0253601685525391</v>
+        <v>0.0239609614863516</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0128866729732153</v>
+        <v>0.0131278539620267</v>
       </c>
       <c r="D47" t="n">
-        <v>1.96793762092432</v>
+        <v>1.82520018547285</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0863719335810304</v>
+        <v>0.106741149314423</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0389311178937633</v>
+        <v>0.0390556205893851</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0157463993373106</v>
+        <v>0.0157297711979043</v>
       </c>
       <c r="H47" t="n">
-        <v>2.47238222909267</v>
+        <v>2.48291091446953</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0398235973473371</v>
+        <v>0.0388990766414496</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3335,28 +3335,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.00744684557234176</v>
+        <v>-0.00732342574189678</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0109340777500926</v>
+        <v>0.0112570021185252</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.681067552522086</v>
+        <v>-0.650566257764569</v>
       </c>
       <c r="E48" t="n">
-        <v>0.509807966005211</v>
+        <v>0.528565856005028</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.00557356404843173</v>
+        <v>-0.00547176869465432</v>
       </c>
       <c r="G48" t="n">
-        <v>0.014376201020888</v>
+        <v>0.0143747720984594</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.387693803135722</v>
+        <v>-0.380650813604254</v>
       </c>
       <c r="I48" t="n">
-        <v>0.705448564211749</v>
+        <v>0.710520691907082</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3380,28 +3380,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0147929356876625</v>
+        <v>0.0132787690118449</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00747667192907748</v>
+        <v>0.00766452941094305</v>
       </c>
       <c r="D49" t="n">
-        <v>1.97854551169102</v>
+        <v>1.73249632167712</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0698875908550318</v>
+        <v>0.107216143237251</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0135432631025678</v>
+        <v>0.013484750765181</v>
       </c>
       <c r="G49" t="n">
-        <v>0.010747356933089</v>
+        <v>0.0107507020363874</v>
       </c>
       <c r="H49" t="n">
-        <v>1.26014825662585</v>
+        <v>1.25431350618219</v>
       </c>
       <c r="I49" t="n">
-        <v>0.229921672965114</v>
+        <v>0.231952528303808</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3425,28 +3425,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00000247745141937421</v>
+        <v>0.00000295971735791415</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00000592012736170089</v>
+        <v>0.00000594281114652983</v>
       </c>
       <c r="D50" t="n">
-        <v>0.418479412352106</v>
+        <v>0.498033217771426</v>
       </c>
       <c r="E50" t="n">
-        <v>0.684380800948204</v>
+        <v>0.628933889124664</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00000568754928195061</v>
+        <v>0.00000567884921146681</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00000735086729228707</v>
+        <v>0.00000733881336958842</v>
       </c>
       <c r="H50" t="n">
-        <v>0.773724930106995</v>
+        <v>0.773810277694158</v>
       </c>
       <c r="I50" t="n">
-        <v>0.460813042865136</v>
+        <v>0.460778649603801</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3470,28 +3470,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0000124370833769189</v>
+        <v>0.0000129348786555979</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00000292909543292424</v>
+        <v>0.00000299142074307492</v>
       </c>
       <c r="D51" t="n">
-        <v>4.24604921953752</v>
+        <v>4.32399176396096</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000935899033986764</v>
+        <v>0.00078079625913037</v>
       </c>
       <c r="F51" t="n">
-        <v>0.000015927039763572</v>
+        <v>0.0000159201558535038</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00000360367403069689</v>
+        <v>0.00000360131739709623</v>
       </c>
       <c r="H51" t="n">
-        <v>4.41966715854484</v>
+        <v>4.42064780692209</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000816577283225275</v>
+        <v>0.000815389399360378</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3515,16 +3515,16 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.35158538393619</v>
+        <v>-0.247632114612433</v>
       </c>
       <c r="C52" t="n">
-        <v>0.31022549049494</v>
+        <v>0.233762843171664</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.13332203416058</v>
+        <v>-1.05933052170564</v>
       </c>
       <c r="E52" t="n">
-        <v>0.307474099814827</v>
+        <v>0.346952411685218</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
@@ -3552,16 +3552,16 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.211515211249007</v>
+        <v>-0.174405244116654</v>
       </c>
       <c r="C53" t="n">
-        <v>0.067505841007798</v>
+        <v>0.062833074444764</v>
       </c>
       <c r="D53" t="n">
-        <v>-3.13328755099242</v>
+        <v>-2.77569171424154</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00905807810302599</v>
+        <v>0.0178504322357621</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
@@ -3589,16 +3589,16 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.618620318493496</v>
+        <v>-0.626723339508677</v>
       </c>
       <c r="C54" t="n">
-        <v>0.137459771162749</v>
+        <v>0.157968281869037</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.50037355119023</v>
+        <v>-3.96739986086739</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000669460963397731</v>
+        <v>0.00151476089707255</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -3626,16 +3626,16 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0942653442052305</v>
+        <v>0.0859219571643739</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0425099598058021</v>
+        <v>0.0514853622339592</v>
       </c>
       <c r="D55" t="n">
-        <v>2.21748843414254</v>
+        <v>1.66886185580143</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0443368229325152</v>
+        <v>0.114647834980061</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
@@ -3663,16 +3663,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.719472194388031</v>
+        <v>-0.752874044605683</v>
       </c>
       <c r="C56" t="n">
-        <v>0.125518203300576</v>
+        <v>0.114072844099732</v>
       </c>
       <c r="D56" t="n">
-        <v>-5.7320147633497</v>
+        <v>-6.59994103370878</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0000771707337756842</v>
+        <v>0.000014855039689786</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
